--- a/biology/Médecine/Infection_tuberculeuse_latente/Infection_tuberculeuse_latente.xlsx
+++ b/biology/Médecine/Infection_tuberculeuse_latente/Infection_tuberculeuse_latente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infection tuberculeuse latente ou ITL, est la forme asymptomatique de portage de tuberculose, sans traduction clinique ou en imagerie.
 l'ITL n'est pas contagieuse.
@@ -513,7 +525,9 @@
           <t>Risque de progression vers la tuberculose maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains sujets ont un risque supérieur de progression. 
 Ce sont les :
@@ -558,7 +572,9 @@
           <t>Dépistage de l'ITL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Du fait que l’infection latente n’a pas de traduction clinique ou en imagerie, le seul argument	 en	 faveur de ce diagnostic	 est l’étude de l’immunité. Les immunodiagnostics	 sont l’intra-dermoréaction (IDR) à la tuberculine et les tests de libération de l'interféron gamma (TLIG). 
 Le dépistage est fait quand il existe une augmentation du risque de	 développement d’une tuberculose maladie et qu’un traitement est envisagé pour prévenir sa survenue.
@@ -595,7 +611,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement des infections latentes repose soit sur l’isoniazide en	 monothérapie	 pour	 une	 durée	 de	 6	 ou	 9	 mois, soit	 sur	
 l’association isoniazide-rifampicine	 pendant	3	mois.
